--- a/sopa.xlsx
+++ b/sopa.xlsx
@@ -4312,452 +4312,452 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>NPGGNSAAVASSOPAGNPNX</t>
+          <t>VZFEAXPQÁRAVACERRVXD</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
         <is>
-          <t>LEBRE</t>
+          <t>CASO</t>
         </is>
       </c>
       <c r="C1" s="5" t="inlineStr">
         <is>
-          <t>ZOAJXDERVZCNHRNFMQPT</t>
+          <t>XBOMLTARESSACÁRAMOSU</t>
         </is>
       </c>
       <c r="D1" s="5" t="inlineStr">
         <is>
-          <t>ALAGA</t>
+          <t>AVÓS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>QDNZGPDSDMOVCBFBHATZ</t>
+          <t>BAFMZEPZULMELÁAFLDHB</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>NOESE</t>
+          <t>GOZA</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>EASSÍUTITSNIHAVSOEEA</t>
+          <t>VHBAOSDTAOEZHGCAPTRZ</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>BRITO</t>
+          <t>CUME</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>SHAQCLIVEILRNMTSSATE</t>
+          <t>EVMPJIPLMIIRRPEBOAAZ</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>PESTE</t>
+          <t>UNHE</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>GDBELMOLESTESDESTSNR</t>
+          <t>GIJRSQUQCLGDESBAGUEZ</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>LIGAS</t>
+          <t>NONA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>EMESSARTSOMAPUXIOREL</t>
+          <t>CRAEILRQJCTADLVNFVUH</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>ANUVIA</t>
+          <t>AMENO</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>BURXIDVTQCBCUDOSNPIM</t>
+          <t>ZNAIEOPXSARAÇRECILAS</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>SUÍNA</t>
+          <t>COZEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>DOVMOÃRALBIRDMEETAPN</t>
+          <t>IEONVNDJRSRAMZEMHAGR</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>AVIARÁ</t>
+          <t>FARAÓ</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>JNIEIEOUJOOZRÇALMUTA</t>
+          <t>AZGNFBMEAOHSVVQHBFOT</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>TELEX</t>
+          <t>EMITI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>RCVMEGEEATEZPQLVCLJJ</t>
+          <t>MNRACELMQRAHDMILMLDU</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CHEIOS</t>
+          <t>PINTA</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>FETINLHITNEARTJCSSED</t>
+          <t>SDLHIXLESOCIALIZASIA</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>APEDRO</t>
+          <t>PALCO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>AXONUCCIOIODNRAÁEUHN</t>
+          <t>VEOVEAUFEGNTAOHBJACD</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CLIVEI</t>
+          <t>ENERVA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CDOGVPFNFNCORMMVILNI</t>
+          <t>FZREAOEGSZREGISTARMI</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>DENUDA</t>
+          <t>CHECOS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>GGPMJHVIMMMIEEBMRGNO</t>
+          <t>OOSAULTTIROQALRIITRH</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>SUFIXE</t>
+          <t>SITIAM</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>AVGIRFREAIFOXDBVEICL</t>
+          <t>AZSHZMCGASJCZHUBEAEG</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>LÍVIDO</t>
+          <t>DESATA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>LPJDPUCPMEMATSUAIAGE</t>
+          <t>OMOMVAAEMENZHGNAMSPT</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>RIFADAS</t>
+          <t>TURVAI</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>LIANSQIGNCPIJQRLRGIH</t>
+          <t>LSVÁUURLBSÍITJXQJMRO</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>AMONTOA</t>
+          <t>POMPEU</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>AEBQNAORSTISSTSCDOES</t>
+          <t>DJVLXSHÓDIRDAOEXXNEL</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>VOLÚPIA</t>
+          <t>AGRAVOS</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ILCLCTAEXEAQQSGPEAEA</t>
+          <t>TQECRELNAHONHRIFJUAL</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>ASSINAM</t>
+          <t>MARINHE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>VSXAVRRSNPJNAIASNCLE</t>
+          <t>UXAXEPOSARSESXVRIIFH</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>APOSSAVA</t>
+          <t>REGATAS</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>BJMOALPCDOJTMPPJLSSN</t>
+          <t>AQAHSAPNDPZNIBOJOIXO</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>FORÇOSO</t>
+          <t>PINCHES</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>AATITJITÚQITGLSEIRAR</t>
+          <t>HMRGLSIDIRATCIDIAEVT</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>GELADURA</t>
+          <t>TURVAIS</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>RLTMAEODIVÍLNAMAETMD</t>
+          <t>IQCLCTRMXHQSATFEILIN</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>TRUFEIS</t>
+          <t>REFERIS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>CQNEFLMLIJUELATBCJDF</t>
+          <t>QQGXURANAIATUETVXRSC</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>ABOLISSEM</t>
+          <t>ATERRARÁ</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>ÁOPPRRNXUNUIBANPCHOO</t>
+          <t>SZEXVNCUOBEÓIGEZELEO</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>MOLESTES</t>
+          <t>DESBAGUE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>HEIQOUOMZMDIOSEDCTUL</t>
+          <t>FCASOFSPTJRFIRHIEMIM</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>ABUSASTES</t>
+          <t>RECAVARÁ</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>MVQTRUFEISNQMIQIAUOL</t>
+          <t>BECHALIOOPNVGPNRCEUR</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>ACELEREIS</t>
+          <t>ENGANOSA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>IRABOVSVNXOPMTSJPJRB</t>
+          <t>EVSTURVAIAEGGZANAPSN</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>COAGULARA</t>
+          <t>SEGÁREIS</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>ONLZQQHLCUUOAPUBSPCX</t>
+          <t>APPNTQXPZSRAMAGENCQC</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>CONFEITAM</t>
+          <t>REGISTAR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>OBAFRIFADASSAEEENZAH</t>
+          <t>HLUCHRGFSVTCLIAVOMBA</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>DRIBLARÃO</t>
+          <t>EMPENAVAM</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>SMLPMACIDENTAREISSTE</t>
+          <t>GBOIZHCIAEEMITIGQQOS</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>INSTITUÍS</t>
+          <t>ASFALTAIS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>SEOMGXJAMPZXSJQTRTXF</t>
+          <t>AZSEGÁREISIQAJDRACXS</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>ESCAMÁVEIS</t>
+          <t>QUITADORA</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>XPQUGECVBTXVIPPFOIAL</t>
+          <t>HNTDESATATMTEOOZOBPO</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>CALIBRÁMOS</t>
+          <t>QUEIXAREM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>ULEMDJZUMILXEPTSTGHB</t>
+          <t>JJZVMTURVAISDRPEUSTT</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>INDIRECTOS</t>
+          <t>BRACEJADOS</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>DITDDNLROHHNMMANÍUSE</t>
+          <t>CHECOSPFANTITANQUESS</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>DEPORTASTE</t>
+          <t>CRONOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>QÁRAIVAAZISIDFXEHCXE</t>
+          <t>BSIEVÁRUDREPRIBEHNUT</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>REIMPORTEI</t>
+          <t>CONHECEREI</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>LUJIVTEAZSEAPEDROIXT</t>
+          <t>SXPLDOFFPIRVPBDUUTVA</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>SEDIARÍEIS</t>
+          <t>SOCIALIZAS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>GGSRCXLJSOIEHCAPHVZH</t>
+          <t>HXQDRXSERODEGETORPQE</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>RESTILASTE</t>
+          <t>MISTURAVAS</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>BASIEÍRAIDESUSOLGSBP</t>
+          <t>GJHCDGVNIQESIREFERPV</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>TACANHEIES</t>
+          <t>TESOURARÁS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>AMOSTRASSEM</t>
+          <t>PERDURÁVEIS</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>PENITENCIES</t>
+          <t>ALICERÇARAS</t>
         </is>
       </c>
     </row>
@@ -4765,13 +4765,13 @@
       <c r="A22" s="6" t="n"/>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>CAVALGARDES</t>
+          <t>REINSTALAVA</t>
         </is>
       </c>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>ACIDENTAREIS</t>
+          <t>ANTITANQUES</t>
         </is>
       </c>
     </row>
@@ -4779,13 +4779,13 @@
       <c r="A23" s="6" t="n"/>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>COMPARTIMOS</t>
+          <t>CATEDRATIZAR</t>
         </is>
       </c>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>ARMADILHANDO</t>
+          <t>RESSACÁRAMOS</t>
         </is>
       </c>
     </row>
@@ -4793,13 +4793,13 @@
       <c r="A24" s="6" t="n"/>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>DESAMOLGASTE</t>
+          <t>PROTEGEDORES</t>
         </is>
       </c>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>REPENICARDES</t>
+          <t>RETINÍSSEMOS</t>
         </is>
       </c>
     </row>
